--- a/generated_tables/io_d_sub_sd_stamped_formed_pressfit_straight_pcb_patterns.xlsx
+++ b/generated_tables/io_d_sub_sd_stamped_formed_pressfit_straight_pcb_patterns.xlsx
@@ -19,34 +19,34 @@
     <t>PART NUMBER</t>
   </si>
   <si>
-    <t>SIZE_OF_CONNECTORS</t>
+    <t>SIZE OF CONNECTORS</t>
   </si>
   <si>
-    <t>FIXED_SUFFIX</t>
+    <t>FIXED SUFFIX</t>
   </si>
   <si>
     <t>SERIES</t>
   </si>
   <si>
-    <t>ROHS_COMPLIANT</t>
+    <t>ROHS COMPLIANT</t>
   </si>
   <si>
-    <t>NUMBER_OF_CONTACTS</t>
+    <t>NUMBER OF CONTACTS</t>
   </si>
   <si>
-    <t>CONTACT_TYPE</t>
+    <t>CONTACT TYPE</t>
   </si>
   <si>
-    <t>CONTACT_PLATING</t>
+    <t>CONTACT PLATING</t>
   </si>
   <si>
-    <t>FLANGE_MOUNTING_OPTI</t>
+    <t>FLANGE MOUNTING OPTION</t>
   </si>
   <si>
-    <t>BOARD_MOUNTING_OPTIO</t>
+    <t>BOARD MOUNTING OPTION</t>
   </si>
   <si>
-    <t>FRONT_SHELL_PLATING</t>
+    <t>FRONT SHELL PLATING</t>
   </si>
   <si>
     <t>981 MC</t>
@@ -85,28 +85,28 @@
     <t>L 17TF 37 37 37 37 37 37</t>
   </si>
   <si>
-    <t>981 (9 connectors) [Size 9]</t>
+    <t>981 (9 connectors)</t>
   </si>
   <si>
-    <t>982 (15 connectors) [Size 15]</t>
+    <t>982 (15 connectors)</t>
   </si>
   <si>
-    <t>983 (25 connectors) [Size 25]</t>
+    <t>983 (25 connectors)</t>
   </si>
   <si>
-    <t>984 (37 connectors) [Size 37]</t>
+    <t>984 (37 connectors)</t>
   </si>
   <si>
-    <t>985 (9 connectors) [Size 9]</t>
+    <t>985 (9 connectors)</t>
   </si>
   <si>
-    <t>986 (15 connectors) [Size 15]</t>
+    <t>986 (15 connectors)</t>
   </si>
   <si>
-    <t>987 (25 connectors) [Size 25]</t>
+    <t>987 (25 connectors)</t>
   </si>
   <si>
-    <t>988 (37 connectors) [Size 37]</t>
+    <t>988 (37 connectors)</t>
   </si>
   <si>
     <t>MC</t>
